--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2940.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2940.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9255588583870595</v>
+        <v>1.42681884765625</v>
       </c>
       <c r="B1">
-        <v>1.746939635269696</v>
+        <v>1.379914283752441</v>
       </c>
       <c r="C1">
-        <v>6.588871584274064</v>
+        <v>3.436492443084717</v>
       </c>
       <c r="D1">
-        <v>3.248482058518214</v>
+        <v>2.743883848190308</v>
       </c>
       <c r="E1">
-        <v>1.518337260805078</v>
+        <v>0.874331533908844</v>
       </c>
     </row>
   </sheetData>
